--- a/project/dataset/summary homework/vasectomy_random_sample_2000_ranges.xlsx
+++ b/project/dataset/summary homework/vasectomy_random_sample_2000_ranges.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuxiao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comp_text_class\project\dataset\summary homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460178E1-4568-451F-B160-36AD05E3CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9213705-650B-4B2D-BEB0-7DD8FD7FBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Group</t>
   </si>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1067-1069, 1072, 1074-1076, 1081-1083, 1085, 1087-1089, 1092, 1098-1099, 1101-1102, 1105, 1107-1111, 1115, 1117-1118, 1120-1126, 1128-1129, 1131, 1135, 1137, 1140-1142, 1148, 1150, 1153, 1156, 1159, 1163, 1165-1166, 1169, 1172, 1177, 1180, 1182-1183, 1185-1188, 1190, 1192-1193, 1196-1197, 1199, 1201, 1203, 1205-1206, 1208, 1212, 1214, 1217-1220, 1224-1227, 1229, 1231-1234, 1236, 1238, 1241-1242, 1244-1248, 1251, 1253, 1256-1257, 1260-1261, 1264, 1267-1269, 1271, 1274, 1276-1279, 1281-1285, 1288, 1290-1293, 1299, 1302, 1304, 1307, 1309, 1312, 1315, 1317, 1319-1322, 1325, 1327, 1332-1333, 1337, 1340, 1342, 1344-1348, 1351, 1355, 1360, 1367-1370, 1372-1374, 1377-1378, 1384-1386, 1388-1389, 1394, 1396-1398, 1401-1403, 1405, 1407-1408, 1410, 1412, 1416-1417, 1419, 1421, 1423-1426, 1429, 1434, 1437-1438, 1440, 1443-1444, 1446, 1448, 1451, 1453-1455, 1458, 1463-1466, 1468, 1474, 1477, 1479-1485, 1487, 1493, 1495, 1504-1506, 1508-1509, 1513-1516, 1519, 1522, 1526, 1531, 1533, 1537-1538, 1541-1543, 1547-1548, 1550, 1557, 1560, 1562, 1566, 1568, 1570, 1572, 1576-1578, 1582, 1584, 1586, 1590-1592, 1594-1596, 1603, 1607, 1611-1614, 1616, 1621-1624, 1627-1631, 1633, 1635, 1637, 1641, 1643, 1646, 1648, 1650, 1655, 1657-1658, 1660, 1663, 1666-1667, 1670, 1672, 1674-1675, 1677-1678, 1681-1683, 1687, 1690, 1693, 1695, 1698, 1700, 1704-1705, 1707-1709, 1715-1718, 1720, 1727, 1733, 1735-1738, 1740, 1746-1747, 1751-1752, 1754, 1756, 1758-1759, 1762-1763, 1765-1766, 1768-1770, 1774, 1776-1777, 1781-1782, 1784, 1787-1788, 1790-1793, 1797-1799, 1804-1805, 1807-1808, 1810-1811, 1815, 1823, 1828, 1831, 1835-1836, 1838-1839, 1842-1843, 1845, 1847, 1850-1851, 1854-1857, 1862-1863, 1865, 1867-1868, 1871-1875, 1877, 1879, 1883-1884, 1886-1887, 1894-1896, 1901-1904, 1906, 1910-1914, 1916-1918, 1924, 1932, 1935-1936, 1938, 1940-1942, 1948, 1950-1955, 1958, 1960, 1962, 1964, 1968, 1971-1972, 1974-1975, 1977-1979, 1983-1984, 1986-1987, 1990, 1993-1994, 1996-1997, 1999-2000, 2005-2009, 2012-2013, 2019-2020, 2022, 2025, 2028-2032, 2036-2038, 2040, 2042-2043, 2045, 2048, 2050-2052, 2055, 2058, 2061-2062, 2066-2068, 2073, 2078-2080, 2082-2083, 2087, 2089-2092, 2094, 2099, 2103, 2105-2106, 2108, 2110, 2112-2114, 2117-2118, 2122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>result list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -56,16 +52,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3238, 3240-3242, 3246-3247, 3251-3252, 3254, 3256-3257, 3261, 3263-3264, 3267-3268, 3272-3273, 3275, 3278, 3282, 3284-3285, 3288-3289, 3291, 3294-3295, 3297, 3299-3302, 3304-3305, 3309, 3317, 3319, 3321, 3325, 3334, 3336-3337, 3339-3342, 3344-3345, 3348, 3350-3351, 3355, 3357-3359, 3361-3363, 3365-3370, 3373-3376, 3380, 3388-3389, 3391, 3393-3394, 3397-3398, 3403-3404, 3408-3409, 3411, 3414, 3417-3419, 3421-3423, 3426, 3429, 3432, 3436-3439, 3441-3442, 3444, 3447-3448, 3453, 3455, 3458, 3465, 3467, 3469, 3471-3474, 3484, 3487-3488, 3490, 3493, 3495-3496, 3498-3499, 3502-3503, 3505, 3509, 3511, 3514-3515, 3517, 3519, 3521, 3524-3525, 3529-3530, 3532, 3535, 3539-3540, 3543, 3545, 3547-3549, 3552, 3555, 3557, 3562, 3569-3575, 3577-3578, 3581-3583, 3585-3586, 3588, 3590, 3592-3593, 3595-3597, 3601, 3604-3607, 3610-3612, 3615-3618, 3620-3622, 3624, 3627-3629, 3631-3632, 3635-3636, 3638-3642, 3647, 3650, 3652, 3656, 3661-3662, 3664, 3666-3667, 3669, 3673, 3677, 3679, 3681-3684, 3690, 3693-3697, 3699-3702, 3707-3710, 3712-3714, 3717-3719, 3721, 3723, 3727-3728, 3730-3731, 3733-3735, 3738, 3740-3743, 3746-3747, 3750-3752, 3755-3757, 3760, 3770-3771, 3774-3775, 3778, 3780-3781, 3788, 3790, 3793, 3795, 3797, 3799, 3801-3804, 3806, 3808-3809, 3813, 3818, 3820-3821, 3824, 3826-3827, 3833-3834, 3836, 3838, 3840, 3846, 3850-3851, 3858, 3861, 3863-3864, 3866, 3868, 3870, 3873, 3875, 3877, 3879, 3882, 3885, 3887-3888, 3894, 3897, 3903, 3905-3907, 3909-3910, 3912, 3915-3916, 3924, 3926-3927, 3929-3930, 3932, 3936-3937, 3940, 3942, 3946-3949, 3953, 3955-3956, 3958-3960, 3962-3963, 3968, 3972-3973, 3976-3981, 3987, 3992, 3996, 3998, 4000, 4002-4006, 4008-4009, 4012, 4014-4016, 4018-4021, 4025-4027, 4029, 4031, 4037-4039, 4042, 4049, 4051-4053, 4059, 4061, 4064-4067, 4070, 4073-4076, 4078-4080, 4082-4087, 4089, 4093-4096, 4098-4099, 4101, 4106, 4109-4115, 4119-4121, 4123-4128, 4131-4133, 4135, 4137-4140, 4145-4147, 4150-4152, 4155, 4160-4164, 4167, 4170-4171, 4174, 4177, 4181, 4184-4185, 4189-4191, 4193-4195, 4199, 4201-4203, 4205, 4209, 4212, 4217, 4219-4220, 4222, 4225-4227, 4233-4235, 4237-4244, 4248-4249, 4251-4254, 4261, 4263-4264, 4268, 4273-4274, 4277-4279</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2125, 2129-2130, 2132, 2137, 2140, 2142, 2144-2146, 2149-2150, 2152, 2156, 2159, 2162, 2166-2170, 2173-2174, 2177-2178, 2181, 2185, 2188, 2190-2193, 2196-2198, 2201-2203, 2205-2210, 2214, 2217-2218, 2220-2221, 2223, 2228, 2231, 2233-2234, 2238, 2240-2242, 2245-2246, 2253, 2255, 2258, 2261, 2265, 2269, 2275, 2278, 2284-2287, 2289-2290, 2292, 2294-2295, 2298-2299, 2301-2302, 2304-2309, 2311-2312, 2314-2318, 2320, 2322-2324, 2326-2329, 2332, 2334-2335, 2337, 2339-2341, 2344-2345, 2347, 2349-2352, 2354-2356, 2358, 2360, 2365-2369, 2371, 2373, 2381-2383, 2385, 2387-2392, 2398, 2401, 2404-2407, 2410, 2413-2414, 2416-2419, 2421, 2427, 2429-2430, 2437, 2439-2440, 2442, 2446-2447, 2454-2456, 2458, 2466, 2472, 2475-2476, 2478, 2480, 2483, 2487-2488, 2493-2495, 2498, 2501-2503, 2508, 2510, 2512-2513, 2518, 2520, 2524-2525, 2527-2528, 2532-2533, 2536-2539, 2542, 2545, 2550-2551, 2553, 2561, 2564, 2575, 2579, 2587-2588, 2590, 2596, 2598-2600, 2602-2603, 2607, 2613-2614, 2617, 2619, 2623-2631, 2633-2636, 2639-2640, 2646-2647, 2651, 2655, 2660, 2662, 2667-2668, 2670, 2672-2674, 2677-2679, 2682-2683, 2686-2691, 2694-2696, 2699, 2703, 2708-2711, 2714, 2716-2717, 2719-2720, 2722-2723, 2725-2727, 2732, 2734, 2739, 2741-2742, 2745-2746, 2750, 2758-2759, 2767, 2771, 2774-2777, 2780-2783, 2785, 2787, 2789, 2792-2793, 2796-2798, 2800, 2802, 2805-2806, 2810-2812, 2816-2817, 2820-2822, 2828, 2830-2831, 2833, 2840, 2843, 2846, 2848-2849, 2851, 2853-2854, 2856, 2858, 2860-2863, 2866-2867, 2872, 2875, 2878, 2880-2881, 2883-2884, 2887, 2889, 2891, 2894, 2897, 2899-2900, 2902, 2904, 2906, 2910, 2914, 2919, 2922-2923, 2926, 2929-2930, 2935, 2937, 2939, 2944-2949, 2951, 2955, 2961, 2965-2966, 2977, 2979, 2981-2983, 2988, 2993-2998, 3001-3005, 3008-3010, 3013-3014, 3016, 3018, 3020, 3022-3023, 3025, 3030-3031, 3034-3035, 3037, 3039-3041, 3043, 3045-3047, 3049, 3052-3053, 3056, 3059, 3061-3062, 3064, 3071-3072, 3074-3075, 3077, 3080-3081, 3084-3085, 3092, 3097, 3100, 3102, 3109, 3112, 3116-3118, 3122, 3124-3125, 3129-3131, 3134, 3137, 3141-3143, 3145-3146, 3152, 3154, 3156, 3159-3164, 3166-3167, 3169-3173, 3179, 3181, 3184-3187, 3192-3193, 3196, 3198, 3200, 3202, 3208-3210, 3212-3215, 3220-3222, 3225-3227, 3229-3230, 3232, 3236, 3996, 3998, 4000, 4002-4006, 4008-4009, 4012, 4014-4016, 4018-4021, 4025-4027, 4029, 4031, 4037-4039, 4042, 4049, 4051-4053, 4059, 4061, 4064-4067, 4070, 4073-4076, 4078-4080, 4082-4087, 4089, 4093-4096, 4098-4099, 4101, 4106, 4109-4115, 4119-4121, 4123-4128, 4131-4133, 4135, 4137-4140, 4145-4147, 4150-4152, 4155, 4160-4164, 4167, 4170-4171, 4174, 4177, 4181, 4184-4185, 4189-4191, 4193-4195, 4199, 4201-4203, 4205, 4209, 4212, 4217, 4219-4220, 4222, 4225-4227, 4233-4235, 4237-4244, 4248-4249, 4251-4254, 4261, 4263-4264, 4268, 4273-4274, 4277-4279</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2125, 2129-2130, 2132, 2137, 2140, 2142, 2144-2146, 2149-2150, 2152, 2156, 2159, 2162, 2166-2170, 2173-2174, 2177-2178, 2181, 2185, 2188, 2190-2193, 2196-2198, 2201-2203, 2205-2210, 2214, 2217-2218, 2220-2221, 2223, 2228, 2231, 2233-2234, 2238, 2240-2242, 2245-2246, 2253, 2255, 2258, 2261, 2265, 2269, 2275, 2278, 2284-2287, 2289-2290, 2292, 2294-2295, 2298-2299, 2301-2302, 2304-2309, 2311-2312, 2314-2318, 2320, 2322-2324, 2326-2329, 2332, 2334-2335, 2337, 2339-2341, 2344-2345, 2347, 2349-2352, 2354-2356, 2358, 2360, 2365-2369, 2371, 2373, 2381-2383, 2385, 2387-2392, 2398, 2401, 2404-2407, 2410, 2413-2414, 2416-2419, 2421, 2427, 2429-2430, 2437, 2439-2440, 2442, 2446-2447, 2454-2456, 2458, 2466, 2472, 2475-2476, 2478, 2480, 2483, 2487-2488, 2493-2495, 2498, 2501-2503, 2508, 2510, 2512-2513, 2518, 2520, 2524-2525, 2527-2528, 2532-2533, 2536-2539, 2542, 2545, 2550-2551, 2553, 2561, 2564, 2575, 2579, 2587-2588, 2590, 2596, 2598-2600, 2602-2603, 2607, 2613-2614, 2617, 2619, 2623-2631, 2633-2636, 2639-2640, 2646-2647, 2651, 2655, 2660, 2662, 2667-2668, 2670, 2672-2674, 2677-2679, 2682-2683, 2686-2691, 2694-2696, 2699, 2703, 2708-2711, 2714, 2716-2717, 2719-2720, 2722-2723, 2725-2727, 2732, 2734, 2739, 2741-2742, 2745-2746, 2750, 2758-2759, 2767, 2771, 2774-2777, 2780-2783, 2785, 2787, 2789, 2792-2793, 2796-2798, 2800, 2802, 2805-2806, 2810-2812, 2816-2817, 2820-2822, 2828, 2830-2831, 2833, 2840, 2843, 2846, 2848-2849, 2851, 2853-2854, 2856, 2858, 2860-2863, 2866-2867, 2872, 2875, 2878, 2880-2881, 2883-2884, 2887, 2889, 2891, 2894, 2897, 2899-2900, 2902, 2904, 2906, 2910, 2914, 2919, 2922-2923, 2926, 2929-2930, 2935, 2937, 2939, 2944-2949, 2951, 2955, 2961, 2965-2966, 2977, 2979, 2981-2983, 2988, 2993-2998, 3001-3005, 3008-3010, 3013-3014, 3016, 3018, 3020, 3022-3023, 3025, 3030-3031, 3034-3035, 3037, 3039-3041, 3043, 3045-3047, 3049, 3052-3053, 3056, 3059, 3061-3062, 3064, 3071-3072, 3074-3075, 3077, 3080-3081, 3084-3085, 3092, 3097, 3100, 3102, 3109, 3112, 3116-3118, 3122, 3124-3125, 3129-3131, 3134, 3137, 3141-3143, 3145-3146, 3152, 3154, 3156, 3159-3164, 3166-3167, 3169-3173, 3179, 3181, 3184-3187, 3192-3193, 3196, 3198, 3200, 3202, 3208-3210, 3212-3215, 3220-3222, 3225-3227, 3229-3230, 3232, 3236</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1557, 1560, 1562, 1566, 1568, 1570, 1572, 1576-1578, 1582, 1584, 1586, 1590-1592, 1594-1596, 1603, 1607, 1611-1614, 1616, 1621-1624, 1627-1631, 1633, 1635, 1637, 1641, 1643, 1646, 1648, 1650, 1655, 1657-1658, 1660, 1663, 1666-1667, 1670, 1672, 1674-1675, 1677-1678, 1681-1683, 1687, 1690, 1693, 1695, 1698, 1700, 1704-1705, 1707-1709, 1715-1718, 1720, 1727, 1733, 1735-1738, 1740, 1746-1747, 1751-1752, 1754, 1756, 1758-1759, 1762-1763, 1765-1766, 1768-1770, 1774, 1776-1777, 1781-1782, 1784, 1787-1788, 1790-1793, 1797-1799, 1804-1805, 1807-1808, 1810-1811, 1815, 1823, 1828, 1831, 1835-1836, 1838-1839, 1842-1843, 1845, 1847, 1850-1851, 1854-1857, 1862-1863, 1865, 1867-1868, 1871-1875, 1877, 1879, 1883-1884, 1886-1887, 1894-1896, 1901-1904, 1906, 1910-1914, 1916-1918, 1924, 1932, 1935-1936, 1938, 1940-1942, 1948, 1950-1955, 1958, 1960, 1962, 1964, 1968, 1971-1972, 1974-1975, 1977-1979, 1983-1984, 1986-1987, 1990, 1993-1994, 1996-1997, 1999-2000, 2005-2009, 2012-2013, 2019-2020, 2022, 2025, 2028-2032, 2036-2038, 2040, 2042-2043, 2045, 2048, 2050-2052, 2055, 2058, 2061-2062, 2066-2068, 2073, 2078-2080, 2082-2083, 2087, 2089-2092, 2094, 2099, 2103, 2105-2106, 2108, 2110, 2112-2114, 2117-2118, 2122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1067-1069, 1072, 1074-1076, 1081-1083, 1085, 1087-1089, 1092, 1098-1099, 1101-1102, 1105, 1107-1111, 1115, 1117-1118, 1120-1126, 1128-1129, 1131, 1135, 1137, 1140-1142, 1148, 1150, 1153, 1156, 1159, 1163, 1165-1166, 1169, 1172, 1177, 1180, 1182-1183, 1185-1188, 1190, 1192-1193, 1196-1197, 1199, 1201, 1203, 1205-1206, 1208, 1212, 1214, 1217-1220, 1224-1227, 1229, 1231-1234, 1236, 1238, 1241-1242, 1244-1248, 1251, 1253, 1256-1257, 1260-1261, 1264, 1267-1269, 1271, 1274, 1276-1279, 1281-1285, 1288, 1290-1293, 1299, 1302, 1304, 1307, 1309, 1312, 1315, 1317, 1319-1322, 1325, 1327, 1332-1333, 1337, 1340, 1342, 1344-1348, 1351, 1355, 1360, 1367-1370, 1372-1374, 1377-1378, 1384-1386, 1388-1389, 1394, 1396-1398, 1401-1403, 1405, 1407-1408, 1410, 1412, 1416-1417, 1419, 1421, 1423-1426, 1429, 1434, 1437-1438, 1440, 1443-1444, 1446, 1448, 1451, 1453-1455, 1458, 1463-1466, 1468, 1474, 1477, 1479-1485, 1487, 1493, 1495, 1504-1506, 1508-1509, 1513-1516, 1519, 1522, 1526, 1531, 1533, 1537-1538, 1541-1543, 1547-1548, 1550,</t>
+  </si>
+  <si>
+    <t>2639-2640, 2646-2647, 2651, 2655, 2660, 2662, 2667-2668, 2670, 2672-2674, 2677-2679, 2682-2683, 2686-2691, 2694-2696, 2699, 2703, 2708-2711, 2714, 2716-2717, 2719-2720, 2722-2723, 2725-2727, 2732, 2734, 2739, 2741-2742, 2745-2746, 2750, 2758-2759, 2767, 2771, 2774-2777, 2780-2783, 2785, 2787, 2789, 2792-2793, 2796-2798, 2800, 2802, 2805-2806, 2810-2812, 2816-2817, 2820-2822, 2828, 2830-2831, 2833, 2840, 2843, 2846, 2848-2849, 2851, 2853-2854, 2856, 2858, 2860-2863, 2866-2867, 2872, 2875, 2878, 2880-2881, 2883-2884, 2887, 2889, 2891, 2894, 2897, 2899-2900, 2902, 2904, 2906, 2910, 2914, 2919, 2922-2923, 2926, 2929-2930, 2935, 2937, 2939, 2944-2949, 2951, 2955, 2961, 2965-2966, 2977, 2979, 2981-2983, 2988, 2993-2998, 3001-3005, 3008-3010, 3013-3014, 3016, 3018, 3020, 3022-3023, 3025, 3030-3031, 3034-3035, 3037, 3039-3041, 3043, 3045-3047, 3049, 3052-3053, 3056, 3059, 3061-3062, 3064, 3071-3072, 3074-3075, 3077, 3080-3081, 3084-3085, 3092, 3097, 3100, 3102, 3109, 3112, 3116-3118, 3122, 3124-3125, 3129-3131, 3134, 3137, 3141-3143, 3145-3146, 3152, 3154, 3156, 3159-3164, 3166-3167, 3169-3173, 3179, 3181, 3184-3187, 3192-3193, 3196, 3198, 3200, 3202, 3208-3210, 3212-3215, 3220-3222, 3225-3227, 3229-3230, 3232, 3236</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2125, 2129-2130, 2132, 2137, 2140, 2142, 2144-2146, 2149-2150, 2152, 2156, 2159, 2162, 2166-2170, 2173-2174, 2177-2178, 2181, 2185, 2188, 2190-2193, 2196-2198, 2201-2203, 2205-2210, 2214, 2217-2218, 2220-2221, 2223, 2228, 2231, 2233-2234, 2238, 2240-2242, 2245-2246, 2253, 2255, 2258, 2261, 2265, 2269, 2275, 2278, 2284-2287, 2289-2290, 2292, 2294-2295, 2298-2299, 2301-2302, 2304-2309, 2311-2312, 2314-2318, 2320, 2322-2324, 2326-2329, 2332, 2334-2335, 2337, 2339-2341, 2344-2345, 2347, 2349-2352, 2354-2356, 2358, 2360, 2365-2369, 2371, 2373, 2381-2383, 2385, 2387-2392, 2398, 2401, 2404-2407, 2410, 2413-2414, 2416-2419, 2421, 2427, 2429-2430, 2437, 2439-2440, 2442, 2446-2447, 2454-2456, 2458, 2466, 2472, 2475-2476, 2478, 2480, 2483, 2487-2488, 2493-2495, 2498, 2501-2503, 2508, 2510, 2512-2513, 2518, 2520, 2524-2525, 2527-2528, 2532-2533, 2536-2539, 2542, 2545, 2550-2551, 2553, 2561, 2564, 2575, 2579, 2587-2588, 2590, 2596, 2598-2600, 2602-2603, 2607, 2613-2614, 2617, 2619, 2623-2631, 2633-2636,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3238, 3240-3242, 3246-3247, 3251-3252, 3254, 3256-3257, 3261, 3263-3264, 3267-3268, 3272-3273, 3275, 3278, 3282, 3284-3285, 3288-3289, 3291, 3294-3295, 3297, 3299-3302, 3304-3305, 3309, 3317, 3319, 3321, 3325, 3334, 3336-3337, 3339-3342, 3344-3345, 3348, 3350-3351, 3355, 3357-3359, 3361-3363, 3365-3370, 3373-3376, 3380, 3388-3389, 3391, 3393-3394, 3397-3398, 3403-3404, 3408-3409, 3411, 3414, 3417-3419, 3421-3423, 3426, 3429, 3432, 3436-3439, 3441-3442, 3444, 3447-3448, 3453, 3455, 3458, 3465, 3467, 3469, 3471-3474, 3484, 3487-3488, 3490, 3493, 3495-3496, 3498-3499, 3502-3503, 3505, 3509, 3511, 3514-3515, 3517, 3519, 3521, 3524-3525, 3529-3530, 3532, 3535, 3539-3540, 3543, 3545, 3547-3549, 3552, 3555, 3557, 3562, 3569-3575, 3577-3578, 3581-3583, 3585-3586, 3588, 3590, 3592-3593, 3595-3597, 3601, 3604-3607, 3610-3612, 3615-3618, 3620-3622, 3624, 3627-3629, 3631-3632, 3635-3636, 3638-3642, 3647, 3650, 3652, 3656, 3661-3662, 3664, 3666-3667, 3669, 3673, 3677, 3679, 3681-3684, 3690, 3693-3697, 3699-3702, 3707-3710, 3712-3714, 3717-3719, 3721, 3723, 3727-3728, 3730-3731, 3733-3735, 3738, 3740-3743, 3746-3747, 3750-3752, 3755-3757, 3760, 3770-3771, 3774-3775, 3778, 3780-3781, 3788, 3790, 3793, 3795, 3797, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3799, 3801-3804, 3806, 3808-3809, 3813, 3818, 3820-3821, 3824, 3826-3827, 3833-3834, 3836, 3838, 3840, 3846, 3850-3851, 3858, 3861, 3863-3864, 3866, 3868, 3870, 3873, 3875, 3877, 3879, 3882, 3885, 3887-3888, 3894, 3897, 3903, 3905-3907, 3909-3910, 3912, 3915-3916, 3924, 3926-3927, 3929-3930, 3932, 3936-3937, 3940, 3942, 3946-3949, 3953, 3955-3956, 3958-3960, 3962-3963, 3968, 3972-3973, 3976-3981, 3987, 3992, 3996, 3998, 4000, 4002-4006, 4008-4009, 4012, 4014-4016, 4018-4021, 4025-4027, 4029, 4031, 4037-4039, 4042, 4049, 4051-4053, 4059, 4061, 4064-4067, 4070, 4073-4076, 4078-4080, 4082-4087, 4089, 4093-4096, 4098-4099, 4101, 4106, 4109-4115, 4119-4121, 4123-4128, 4131-4133, 4135, 4137-4140, 4145-4147, 4150-4152, 4155, 4160-4164, 4167, 4170-4171, 4174, 4177, 4181, 4184-4185, 4189-4191, 4193-4195, 4199, 4201-4203, 4205, 4209, 4212, 4217, 4219-4220, 4222, 4225-4227, 4233-4235, 4237-4244, 4248-4249, 4251-4254, 4261, 4263-4264, 4268, 4273-4274, 4277-4279</t>
   </si>
 </sst>
 </file>
@@ -96,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -457,50 +474,65 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
